--- a/medicine/Pharmacie/Acide_arsanilique/Acide_arsanilique.xlsx
+++ b/medicine/Pharmacie/Acide_arsanilique/Acide_arsanilique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide arsanilique, ou acide para-aminophénylarsonique, est un composé de l'arsenic. Ce dérivé de l'acide phénylarsonique comporte une amine en position 4 (position para). Il existe sous forme zwitterionique. Sa synthèse par Antoine Béchamp, réaction de l'aniline et de l'acide arsénique, est encore employée aujourd’hui :
 C6H5NH2 + H3AsO4 → H2O3AsC6H4NH2 + H2O
-Son sel de sodium fut employé comme médicament sous le nom d'atoxyl pendant quelques années, au tournant du XIXe et du  XXe siècle, dans le traitement des dermatoses simples, puis contre le trypanosome de la maladie du sommeil[2],[3].
+Son sel de sodium fut employé comme médicament sous le nom d'atoxyl pendant quelques années, au tournant du XIXe et du  XXe siècle, dans le traitement des dermatoses simples, puis contre le trypanosome de la maladie du sommeil,.
 </t>
         </is>
       </c>
